--- a/HIllel-IT-BA-Course/HW 5.0 Marketing Analysis.xlsx
+++ b/HIllel-IT-BA-Course/HW 5.0 Marketing Analysis.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taras.khamardiuk\PROJECTS\HIllel-IT-BA-Course\01-Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{851AF1A1-86E9-45E0-A157-4BD0A3778859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FE9A6-5E2A-457A-B046-F617A767547D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CEF0A3D-0986-473C-B3C9-DF860867000A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="App" sheetId="1" r:id="rId1"/>
+    <sheet name="Banks" sheetId="2" r:id="rId2"/>
+    <sheet name="Distant Register" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>Number</t>
   </si>
@@ -143,9 +145,6 @@
     <t>monobank</t>
   </si>
   <si>
-    <t>Uniersal bank Monobank</t>
-  </si>
-  <si>
     <t>56 MB</t>
   </si>
   <si>
@@ -222,13 +221,150 @@
   </si>
   <si>
     <t>72.0</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Overall Rating</t>
+  </si>
+  <si>
+    <t>Stress Resistance</t>
+  </si>
+  <si>
+    <t>Investors' Loyalty</t>
+  </si>
+  <si>
+    <t>Analysts' Assessment</t>
+  </si>
+  <si>
+    <t>Natural Persons' Deposit Rating</t>
+  </si>
+  <si>
+    <t>OTP Bank</t>
+  </si>
+  <si>
+    <t>Credit Agricole Bank</t>
+  </si>
+  <si>
+    <t>Ukrsibbank</t>
+  </si>
+  <si>
+    <t>Sberbank</t>
+  </si>
+  <si>
+    <t>Procredit Bank</t>
+  </si>
+  <si>
+    <t>Alfa-Bank</t>
+  </si>
+  <si>
+    <t>Pravex Bank</t>
+  </si>
+  <si>
+    <t>Privatbank</t>
+  </si>
+  <si>
+    <t>CA+</t>
+  </si>
+  <si>
+    <t>49 MB</t>
+  </si>
+  <si>
+    <t>1.26.1</t>
+  </si>
+  <si>
+    <t>Kredobank</t>
+  </si>
+  <si>
+    <t>KredoBank</t>
+  </si>
+  <si>
+    <t>1.2.22</t>
+  </si>
+  <si>
+    <t>Sberbank Ukraine Online +</t>
+  </si>
+  <si>
+    <t>ProCredit Mobile Banking Ukraine</t>
+  </si>
+  <si>
+    <t>19 MB</t>
+  </si>
+  <si>
+    <t>2.4.18</t>
+  </si>
+  <si>
+    <t>10000+</t>
+  </si>
+  <si>
+    <t>PRAVEX ONLINE</t>
+  </si>
+  <si>
+    <t>95 MB</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>Bank Rating</t>
+  </si>
+  <si>
+    <t>Downloads (D)</t>
+  </si>
+  <si>
+    <t>Universal bank Monobank</t>
+  </si>
+  <si>
+    <t>Feedback Rating</t>
+  </si>
+  <si>
+    <t>App Rating</t>
+  </si>
+  <si>
+    <t>Profitability</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The distant register is created 
+for saying </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"hi"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+to those visiting this tab!</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +372,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,11 +434,91 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -293,20 +539,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7961B54-6194-4406-91EB-E0395863470E}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0">
-  <autoFilter ref="A1:H15" xr:uid="{48B0C794-A25F-454A-8E23-ED7528A7B0AC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
-    <sortCondition descending="1" ref="E1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A7961B54-6194-4406-91EB-E0395863470E}" name="Table1" displayName="Table1" ref="A1:M20" totalsRowShown="0">
+  <autoFilter ref="A1:M20" xr:uid="{48B0C794-A25F-454A-8E23-ED7528A7B0AC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M20">
+    <sortCondition descending="1" ref="E1:E20"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{DBC21FED-1418-419C-98A6-4BB1C41E68CB}" name="Number" dataDxfId="1"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{DBC21FED-1418-419C-98A6-4BB1C41E68CB}" name="Number" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{7EBF98F0-79DB-43B4-B209-0044822F6FF3}" name="Organization"/>
     <tableColumn id="3" xr3:uid="{53D2C21B-6C05-4ABF-9C1A-8206A1A14459}" name="Application Name"/>
     <tableColumn id="8" xr3:uid="{A301E79B-CE0B-4315-8FB2-B558DBE7486C}" name="Feedback"/>
     <tableColumn id="7" xr3:uid="{C336A75E-3D28-4C32-9DBD-440757D1C42A}" name="Rating"/>
     <tableColumn id="4" xr3:uid="{5A21AC39-2CB8-4739-A2FE-D73D0CBC65D3}" name="Size"/>
-    <tableColumn id="5" xr3:uid="{7074B525-4663-4F30-9915-4B41FC3EBE44}" name="Current Version" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{7074B525-4663-4F30-9915-4B41FC3EBE44}" name="Current Version" dataDxfId="15"/>
     <tableColumn id="6" xr3:uid="{B5D06BE9-96E3-418D-8A21-936CC355058E}" name="Downloads"/>
+    <tableColumn id="10" xr3:uid="{9279D644-4FDB-43AC-B128-E7BBD53C4865}" name="Downloads (D)"/>
+    <tableColumn id="9" xr3:uid="{17D998C7-AADA-40A1-9EB4-1EFC74412BCC}" name="Bank Rating" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{3EFEF1D9-FE9C-4CD4-A0D3-DF64B60A311A}" name="Feedback Rating" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{C01A2C70-3CE2-4F66-9E54-82DF6FEECEFB}" name="App Rating" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{1615964A-7C73-4E98-B056-4FA96525222D}" name="Profitability" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB5ED73E-B6E7-4EAE-A209-0092961388A5}" name="Table2" displayName="Table2" ref="A1:H11" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:H11" xr:uid="{C71B0FAF-3A40-4ADD-A417-4D43270EC6D6}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B24EB5E4-9B0E-4D19-9C80-DD9FCB846048}" name="No." dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B2AE2D00-BA73-49B7-BDF7-6D71DCDAA71D}" name="Bank"/>
+    <tableColumn id="3" xr3:uid="{919ADB82-2D78-46FC-A1A4-DEB4B82EC212}" name="Overall Rating" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{ECF5365E-8569-4511-BC9D-87BECD4E66D3}" name="Stress Resistance" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{947759FD-4D24-4E92-AF03-3F3079FA0AF4}" name="Investors' Loyalty" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{8A3A8053-C4D0-40BD-929D-C05EECBBFF89}" name="Analysts' Assessment" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{4CB5DF17-5052-470C-A7A0-4A1DD673C82A}" name="Natural Persons' Deposit Rating" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{239E50CA-3C9C-470F-8F0F-B74CCF2D493A}" name="App Rating" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -609,23 +877,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E750D6D-E357-4555-89E1-496B3E04AFC4}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,13 +922,28 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -668,18 +955,33 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>5000000</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -702,16 +1004,31 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1000000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
       </c>
       <c r="D4">
         <v>83318</v>
@@ -720,96 +1037,156 @@
         <v>4.7</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1000000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>5809</v>
+      </c>
+      <c r="E5">
+        <v>4.7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>100000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>62281</v>
-      </c>
-      <c r="E5">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>3562</v>
       </c>
       <c r="E6">
         <v>4.5999999999999996</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>1000000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>3562</v>
+      </c>
+      <c r="E7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>52665</v>
-      </c>
-      <c r="E7">
-        <v>4.5</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="I7">
+        <v>50000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -832,193 +1209,1420 @@
       <c r="H8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>10000000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>52665</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>62</v>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>1000000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>303</v>
+      </c>
+      <c r="E10">
+        <v>4.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>17</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>4.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>20585</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>3.9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="I12">
+        <v>1000000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13">
+        <v>13418</v>
+      </c>
+      <c r="E13">
+        <v>3.9</v>
+      </c>
+      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="D11">
-        <v>13418</v>
-      </c>
-      <c r="E11">
-        <v>3.9</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G13" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>500000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>125</v>
+      </c>
+      <c r="E14">
+        <v>3.6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>1499</v>
+      </c>
+      <c r="E15">
+        <v>3.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>100000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1">
+        <v>14</v>
+      </c>
+      <c r="L15" s="1">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>1349</v>
+      </c>
+      <c r="E16">
+        <v>3.2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>22</v>
+      </c>
+      <c r="K16" s="1">
+        <v>15</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>36648</v>
+      </c>
+      <c r="E17">
+        <v>2.7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>1000000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18">
+        <v>1029</v>
+      </c>
+      <c r="E18">
+        <v>2.7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18">
+        <v>100000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>17</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>4073</v>
+      </c>
+      <c r="E19">
+        <v>2.6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <v>58.2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>500000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1">
+        <v>18</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>1989</v>
+      </c>
+      <c r="E20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>100000</v>
+      </c>
+      <c r="J20" s="1">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>1499</v>
-      </c>
-      <c r="E12">
-        <v>3.3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>36648</v>
-      </c>
-      <c r="E13">
-        <v>2.7</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="K20" s="1">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1">
+        <v>19</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>4073</v>
-      </c>
-      <c r="E14">
-        <v>2.6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="3">
-        <v>58.2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <v>1989</v>
-      </c>
-      <c r="E15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4 J16:J17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J17 J2:J4 J6 J10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4676D5A3-4D17-4453-95A4-B6549B16C8B7}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4.13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.99</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.01</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.81</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.73</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3.63</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.38</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3.54</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.93</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.52</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H2:H11">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AC0678-3E71-4744-9CE6-80DA18D69C91}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:U21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>